--- a/Assets/DataTable/事件表.xlsx
+++ b/Assets/DataTable/事件表.xlsx
@@ -59,7 +59,7 @@
     <t>事件id</t>
   </si>
   <si>
-    <t>事件备注</t>
+    <t>名称</t>
   </si>
   <si>
     <t>事件类型</t>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>

--- a/Assets/DataTable/事件表.xlsx
+++ b/Assets/DataTable/事件表.xlsx
@@ -65,10 +65,10 @@
     <t>事件类型</t>
   </si>
   <si>
-    <t>事件文本</t>
-  </si>
-  <si>
-    <t>图片路径</t>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
   <si>
     <t>是否力量检测</t>
@@ -869,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +888,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -910,10 +913,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -922,10 +925,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -934,10 +937,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,34 +1269,37 @@
   <sheetPr/>
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.86111111111111" style="3" customWidth="1"/>
     <col min="2" max="5" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.9444444444444" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.8240740740741" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="13" max="14" width="11.9444444444444" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.7037037037037" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="15" max="15" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="16" max="16" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="17" max="17" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="18" max="18" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="19" max="19" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="20" max="21" width="11.9444444444444" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="22" max="22" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="23" max="23" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="24" max="24" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="25" max="25" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="26" max="26" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="27" max="28" width="11.9444444444444" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.8240740740741" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="29" max="29" width="11.9444444444444" style="4" customWidth="1"/>
     <col min="30" max="30" width="11.9444444444444" style="3" customWidth="1"/>
     <col min="31" max="31" width="11.9444444444444" style="4" customWidth="1"/>
@@ -1519,619 +1525,619 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>5</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>1001</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>1002</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="14">
         <v>1</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="14">
         <v>6</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="14">
         <v>2001</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="S5" s="14">
         <v>2002</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="18">
         <v>1</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="19" t="s">
         <v>34</v>
       </c>
       <c r="V5" s="18">
         <v>5</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="X5" s="18">
         <v>3001</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Z5" s="18">
         <v>3002</v>
       </c>
-      <c r="AA5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="21"/>
+      <c r="AD5" s="23"/>
       <c r="AE5" s="22"/>
-      <c r="AF5" s="21"/>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="22"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>1003</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>1004</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="14">
         <v>1</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="14">
         <v>5</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="14">
         <v>2003</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="S6" s="14">
         <v>2004</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="18">
         <v>1</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="18">
         <v>5</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="19" t="s">
         <v>46</v>
       </c>
       <c r="X6" s="18">
         <v>3003</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="Z6" s="18">
         <v>3004</v>
       </c>
-      <c r="AA6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21"/>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="22"/>
-      <c r="AD6" s="21"/>
+      <c r="AD6" s="23"/>
       <c r="AE6" s="22"/>
-      <c r="AF6" s="21"/>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="22"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="13"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
       <c r="V7" s="18"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="17"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="18"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="21"/>
+      <c r="AD7" s="23"/>
       <c r="AE7" s="22"/>
-      <c r="AF7" s="21"/>
+      <c r="AF7" s="23"/>
       <c r="AG7" s="22"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="13"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="18"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="18"/>
-      <c r="Y8" s="17"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="18"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="21"/>
+      <c r="AD8" s="23"/>
       <c r="AE8" s="22"/>
-      <c r="AF8" s="21"/>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="22"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
       <c r="V9" s="18"/>
-      <c r="W9" s="17"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="18"/>
-      <c r="Y9" s="17"/>
+      <c r="Y9" s="19"/>
       <c r="Z9" s="18"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="22"/>
-      <c r="AD9" s="21"/>
+      <c r="AD9" s="23"/>
       <c r="AE9" s="22"/>
-      <c r="AF9" s="21"/>
+      <c r="AF9" s="23"/>
       <c r="AG9" s="22"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
       <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="18"/>
-      <c r="Y10" s="17"/>
+      <c r="Y10" s="19"/>
       <c r="Z10" s="18"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="22"/>
-      <c r="AD10" s="21"/>
+      <c r="AD10" s="23"/>
       <c r="AE10" s="22"/>
-      <c r="AF10" s="21"/>
+      <c r="AF10" s="23"/>
       <c r="AG10" s="22"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="17"/>
+      <c r="Y11" s="19"/>
       <c r="Z11" s="18"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="21"/>
+      <c r="AD11" s="23"/>
       <c r="AE11" s="22"/>
-      <c r="AF11" s="21"/>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="22"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="17"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="22"/>
-      <c r="AD12" s="21"/>
+      <c r="AD12" s="23"/>
       <c r="AE12" s="22"/>
-      <c r="AF12" s="21"/>
+      <c r="AF12" s="23"/>
       <c r="AG12" s="22"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="13"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="18"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="17"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="21"/>
+      <c r="AD13" s="23"/>
       <c r="AE13" s="22"/>
-      <c r="AF13" s="21"/>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="22"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="18"/>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="17"/>
+      <c r="Y14" s="19"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="21"/>
+      <c r="AD14" s="23"/>
       <c r="AE14" s="22"/>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="23"/>
       <c r="AG14" s="22"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="18"/>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="18"/>
-      <c r="Y15" s="17"/>
+      <c r="Y15" s="19"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
       <c r="AC15" s="22"/>
-      <c r="AD15" s="21"/>
+      <c r="AD15" s="23"/>
       <c r="AE15" s="22"/>
-      <c r="AF15" s="21"/>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="22"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="13"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="18"/>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="19"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="21"/>
+      <c r="AD16" s="23"/>
       <c r="AE16" s="22"/>
-      <c r="AF16" s="21"/>
+      <c r="AF16" s="23"/>
       <c r="AG16" s="22"/>
     </row>
   </sheetData>
